--- a/Income/GOOG_inc.xlsx
+++ b/Income/GOOG_inc.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -88,7 +88,7 @@
     <col min="13" max="13" bestFit="1" customWidth="1" width="17.6"/>
     <col min="14" max="14" bestFit="1" customWidth="1" width="17.6"/>
     <col min="15" max="15" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="16" max="16" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="16" max="16" bestFit="1" customWidth="1" width="17.6"/>
     <col min="17" max="17" bestFit="1" customWidth="1" width="16.5"/>
     <col min="18" max="18" bestFit="1" customWidth="1" width="16.5"/>
     <col min="19" max="19" bestFit="1" customWidth="1" width="16.5"/>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="16.5"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="16.5"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>196663000000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>182350000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>171435000000.0</v>
-      </c>
       <c r="D2" s="0" t="n">
-        <v>165739000000.0</v>
+        <v>171526000000.0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>166537000000.0</v>
+        <v>165830000000.0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>161766000000.0</v>
+        <v>166628000000.0</v>
       </c>
       <c r="G2" s="0" t="n">
+        <v>161857000000.0</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>155058000000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>148299000000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>142012000000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>136819000000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>129866000000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>123898000000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>117251000000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>110855000000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>104596000000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>99275000000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>94765000000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>90272000000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>85537000000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>81761000000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>77988000000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>74989000000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>71763000000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>69611000000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>67839000000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>66001000000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>63605000000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>60836000000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>57988000000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>55519000000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>50095000000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>49645000000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>48345000000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>46039000000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>46340000000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>42756000000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>39975000000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>37905000000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>35761000000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>33327000000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>89853000000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>84732000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>79672000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>76123000000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>74866000000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>71896000000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>68794000000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>65507000000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>62094000000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>59549000000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>55898000000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>52765000000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>49255000000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>45583000000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>41977000000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>39528000000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>37285000000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>35138000000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>32665000000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>31003000000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>29456000000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>28164000000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>26897000000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>26555000000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>26086000000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>25691000000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>25023000000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>23737000000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>22818000000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>21993000000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>18495000000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>19041000000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>18523000000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>17176000000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>18123000000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>15546000000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>14041000000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>13188000000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>12432000000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>11606000000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>106810000000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>97618000000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>91763000000.0</v>
-      </c>
       <c r="D4" s="0" t="n">
-        <v>89616000000.0</v>
+        <v>91854000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>91671000000.0</v>
+        <v>89707000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>89870000000.0</v>
+        <v>91762000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
+        <v>89961000000.0</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>86264000000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>82792000000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>79918000000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>77270000000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>73968000000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>71133000000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>67996000000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>65272000000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>62619000000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>59747000000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>57480000000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>55134000000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>52872000000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>50758000000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>48532000000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>46825000000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>44866000000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>43056000000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>41753000000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>40310000000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>38582000000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>37099000000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>35170000000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>33526000000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>31600000000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>30604000000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>29822000000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>28863000000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>28217000000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>27210000000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>25934000000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>24717000000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>23329000000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>21721000000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>28238000000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>27573000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>27773000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>27471000000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>26809000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>26018000000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>24830000000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>23508000000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>22409000000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>21419000000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>19691000000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>18664000000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>17722000000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>16625000000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>15941000000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>15332000000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>14523000000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>13948000000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>13836000000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>13470000000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>12896000000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>12282000000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>11585000000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>11010000000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>10459000000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>9832000000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>8952000000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>8118000000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>7646000000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>7137000000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>6429000000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>6487000000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>6259000000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>6083000000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>6156000000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>5681000000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>5377000000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>5162000000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>4916000000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>4506000000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>28907000000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>28998000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>29420000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>29633000000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>29402000000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>28015000000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>26551000000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>24953000000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>24242000000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>23256000000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>22207000000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>21242000000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>20295000000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>19733000000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>18821000000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>18573000000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>18015000000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>17470000000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>16579000000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>15890000000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>15381000000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>15183000000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>14902000000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>14651000000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>14466000000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>13982000000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>13104000000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>12418000000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>11754000000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>10986000000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>9729000000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>9696000000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>9370000000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>8946000000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>9188000000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>8338000000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>7722000000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>7313000000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>6697000000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>6010000000.0</v>
       </c>
     </row>
@@ -866,120 +885,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>49684000000.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>41224000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>34839000000.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>32803000000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>35600000000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>34231000000.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>33186000000.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>32634000000.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>26499000000.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>27524000000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>26999000000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>26156000000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>27243000000.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>26178000000.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>25121000000.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>23106000000.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>24942000000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>23716000000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>22457000000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>21398000000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>20255000000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>19360000000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>18379000000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>17395000000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>16828000000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>16496000000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>16526000000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>16563000000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>15770000000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>15403000000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>15442000000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>14421000000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>14193000000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>13834000000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>12873000000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>13191000000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>12835000000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>11742000000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>11216000000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>10705000000.0</v>
       </c>
     </row>
@@ -990,16 +1012,14 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
+        <v>190000000.0</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>135000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>99000000.0</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1176,6 +1196,11 @@
         </is>
       </c>
       <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1188,120 +1213,123 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
+        <v>-12419000000.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>-7054000000.0</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>-5742000000.0</v>
-      </c>
       <c r="D9" s="0" t="n">
-        <v>-3715000000.0</v>
+        <v>-2465000000.0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1133000000.0</v>
+        <v>-438000000.0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2117000000.0</v>
+        <v>4410000000.0</v>
       </c>
       <c r="G9" s="0" t="n">
+        <v>5394000000.0</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <v>5807000000.0</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>7814000000.0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>6017000000.0</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>7389000000.0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>5860000000.0</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>4599000000.0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>3674000000.0</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>1015000000.0</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>911000000.0</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>992000000.0</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>898000000.0</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>434000000.0</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="T9" s="0" t="n">
         <v>36000000.0</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>-59000000.0</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>-79000000.0</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>291000000.0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>599000000.0</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>549000000.0</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>563000000.0</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <v>763000000.0</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <v>747000000.0</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>628000000.0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <v>719000000.0</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <v>496000000.0</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AF9" s="0" t="n">
         <v>545000000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>596000000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>613000000.0</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <v>635000000.0</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>456000000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>693000000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>644000000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>584000000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>763000000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>628000000.0</v>
       </c>
     </row>
@@ -1312,16 +1340,14 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>1624000000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>1865000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>2100000000.0</v>
       </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1498,6 +1524,11 @@
         </is>
       </c>
       <c r="AN10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO10" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1510,120 +1541,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>61608000000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>48082000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>40097000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>35366000000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>39236000000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>39625000000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>38993000000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>40448000000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>32516000000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>34913000000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>32859000000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>30755000000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>30917000000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>27193000000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>26032000000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>24098000000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>25840000000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>24150000000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>22493000000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>21339000000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>20176000000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>19651000000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>18978000000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>17944000000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>17391000000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>17259000000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>17273000000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>17191000000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>16489000000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>15899000000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>15987000000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>15017000000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>14806000000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>14469000000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>13329000000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>13884000000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>13479000000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>12326000000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>11979000000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>11333000000.0</v>
       </c>
     </row>
@@ -1634,120 +1668,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>10245000000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>7813000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>4384000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>3832000000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>4714000000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>5282000000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>6373000000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>5704000000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>4524000000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>4177000000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>14091000000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>14447000000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>14280000000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>14531000000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>5017000000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>4754000000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>5143000000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>4672000000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>3425000000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>3353000000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>3136000000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>3303000000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>3926000000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>3947000000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>3906000000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>3639000000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>3585000000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>3264000000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>3207000000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>2739000000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>2850000000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>2885000000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>2615000000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>2916000000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>2743000000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>2727000000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>2650000000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>2589000000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>2404000000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>2320000000.0</v>
       </c>
     </row>
@@ -1758,120 +1795,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>51363000000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>40269000000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>35713000000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>31534000000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>34522000000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>34343000000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>32620000000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>34744000000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>27992000000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>30736000000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>18768000000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>16308000000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>16637000000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>12662000000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>21015000000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>19344000000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>20697000000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>19478000000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>19068000000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>17986000000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>17040000000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>16348000000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>15052000000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>13997000000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>13485000000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>13620000000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>13688000000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>13927000000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>13282000000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>13160000000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>13137000000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>12132000000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>12191000000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>11553000000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>10586000000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>11157000000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>10829000000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>9737000000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>9575000000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>9013000000.0</v>
       </c>
     </row>
@@ -1882,120 +1922,123 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>51363000000.0</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>40269000000.0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>35713000000.0</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>31534000000.0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>34522000000.0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>34343000000.0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>32620000000.0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>34744000000.0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>27992000000.0</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>30736000000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>18768000000.0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>16308000000.0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>16637000000.0</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>12662000000.0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>21015000000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>19344000000.0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>20697000000.0</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>19478000000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>19068000000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>17986000000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>16518000000.0</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>15826000000.0</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>15497000000.0</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="Y14" s="0" t="n">
         <v>14257000000.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>14199000000.0</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>14136000000.0</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>12731000000.0</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>12962000000.0</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>12839000000.0</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>12733000000.0</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>12430000000.0</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>11636000000.0</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>11193000000.0</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>10737000000.0</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>10556000000.0</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>11109000000.0</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>10829000000.0</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>9737000000.0</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AN14" s="0" t="n">
         <v>9575000000.0</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AO14" s="0" t="n">
         <v>9013000000.0</v>
       </c>
     </row>
@@ -2006,109 +2049,107 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
+        <v>75.12</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>58.7</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>51.75</v>
-      </c>
       <c r="D15" s="0" t="n">
-        <v>45.55</v>
+        <v>51.89</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>49.75</v>
+        <v>45.69</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>49.46</v>
+        <v>49.89</v>
       </c>
       <c r="G15" s="0" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>46.98</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>49.99</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>40.26</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>44.21</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>26.99</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>23.49</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>23.9</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>18.22</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>30.3</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>27.95</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>30.05</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>28.22</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>27.65</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>26.09</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>23.97</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>23.22</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>23.0504</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>21.3888</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>21.4546</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>21.3003</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>24.3899</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <v>29.1266</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>33.7537</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AE15" s="0" t="n">
         <v>38.74</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AF15" s="0" t="n">
         <v>37.4055</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <v>35.1519</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>33.9852</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>32.7384</v>
       </c>
-      <c r="AI15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AJ15" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2130,6 +2171,11 @@
         </is>
       </c>
       <c r="AN15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO15" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2142,120 +2188,123 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.5353</v>
+        <v>0.5431</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.5353</v>
       </c>
       <c r="D16" s="0" t="n">
+        <v>0.5353</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>0.5407</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>0.5505</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>0.5556</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>0.5563</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>0.5583</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>0.5628</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>0.5648</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>0.5696</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>0.5741</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>0.5799</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>0.5888</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>0.5987</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>0.6018</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>0.6066</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>0.6108</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>0.6181</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>0.6208</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>0.6223</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>0.6244</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>0.6252</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>0.6185</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>0.6155</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>0.6107</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>0.6066</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>0.6098</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>0.6065</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>0.6039</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AF16" s="0" t="n">
         <v>0.6308</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>0.6165</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>0.6169</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>0.6269</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>0.6089</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>0.6364</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>0.6488</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>0.6521</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>0.6524</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>0.6518</v>
       </c>
     </row>
@@ -2266,120 +2315,123 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>0.2261</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>0.2032</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>0.1979</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>0.2138</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>0.2116</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>0.214</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>0.2201</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>0.1866</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>0.2012</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>0.2079</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>0.2111</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>0.2323</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>0.2361</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>0.2402</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>0.2327</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>0.2632</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>0.2627</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>0.2625</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>0.2617</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>0.2597</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>0.2582</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>0.2561</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>0.2499</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>0.2481</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>0.2499</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>0.2598</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>0.2723</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>0.272</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>0.2774</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>0.3083</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>0.2905</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>0.2936</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>0.3005</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>0.2778</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>0.3085</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>0.3211</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>0.3098</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>0.3136</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>0.3212</v>
       </c>
     </row>
@@ -2390,120 +2442,123 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
+        <v>0.3133</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>0.2637</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>0.2339</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>0.2134</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>0.2356</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>0.245</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>0.2515</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>0.2727</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>0.229</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>0.2552</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>0.253</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>0.2482</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>0.2637</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>0.2453</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>0.2489</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>0.2427</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>0.2727</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>0.2675</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>0.263</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>0.261</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>0.2587</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>0.2621</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>0.2645</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>0.2578</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>0.2564</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>0.2615</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>0.2716</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>0.2826</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>0.2844</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>0.2864</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>0.3191</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>0.3025</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>0.3063</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>0.3143</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>0.2876</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>0.3247</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>0.3372</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>0.3252</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>0.335</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>0.3401</v>
       </c>
     </row>
@@ -2514,120 +2569,123 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
+        <v>0.2612</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>0.2208</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>0.2083</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>0.1903</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>0.2073</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>0.2123</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>0.2104</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>0.2343</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>0.1971</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>0.2246</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>0.1445</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>0.1316</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>0.1419</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>0.1142</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>0.2009</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>0.1949</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>0.2184</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>0.2158</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>0.2229</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>0.22</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>0.2118</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>0.211</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>0.2159</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>0.2048</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>0.2093</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>0.2142</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>0.2002</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>0.2131</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>0.2214</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>0.2293</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>0.2481</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>0.2344</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>0.2315</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>0.2332</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>0.2278</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>0.2598</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>0.2709</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>0.2569</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>0.2677</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>0.2704</v>
       </c>
     </row>
@@ -2638,120 +2696,123 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
+        <v>0.1695</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>0.0433</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>0.3318</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>0.0824</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>0.0694</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>0.0833</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>0.1838</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>0.1868</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>0.1818</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>0.1669</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>0.1756</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>0.1714</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>0.1808</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>0.2157</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>0.233</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>0.2569</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>0.2946</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>0.2887</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>0.2832</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>0.2508</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>0.232</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>0.2221</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>0.2175</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>0.2214</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>0.2036</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>0.1828</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>0.1822</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>0.1776</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>0.1883</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>0.2036</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>0.2389</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>0.2479</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>0.2625</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>0.2899</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>0.2734</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>0.2996</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>0.2985</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>0.2935</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>0.2554</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>0.2398</v>
       </c>
     </row>
@@ -2762,120 +2823,123 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>63007000000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>54744000000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>47955000000.0</v>
-      </c>
       <c r="D21" s="0" t="n">
-        <v>45339000000.0</v>
+        <v>48046000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>47736000000.0</v>
+        <v>45430000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>45921000000.0</v>
+        <v>47827000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
+        <v>46012000000.0</v>
+      </c>
+      <c r="H21" s="0" t="n">
         <v>44134000000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>43017000000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>36161000000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>36559000000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>35480000000.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>34043000000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>34641000000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>33093000000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>31697000000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>29517000000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>31218000000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>29860000000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>28318000000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>26911000000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>25512000000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>24423000000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>23305000000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>22620000000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>21898000000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>21475000000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>21274000000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>20738000000.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>19896000000.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>19342000000.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>19298000000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>18131000000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>17543000000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>16796000000.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>15385000000.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>15367000000.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>14796000000.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>13593000000.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>12945000000.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>12284000000.0</v>
       </c>
     </row>
@@ -2886,120 +2950,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>49684000000.0</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>41224000000.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>34839000000.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>32803000000.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>35600000000.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>34231000000.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>33186000000.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>32634000000.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>26499000000.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>27524000000.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>26999000000.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>26156000000.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>27243000000.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>26178000000.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>25121000000.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>23106000000.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>24942000000.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>23716000000.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>22457000000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>21398000000.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>20255000000.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>19360000000.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>18379000000.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>17395000000.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>16828000000.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>16496000000.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>16526000000.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>16563000000.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>15770000000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>15403000000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>15442000000.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>14421000000.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>14193000000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>13834000000.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>12873000000.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>13191000000.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>12835000000.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>11742000000.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>11216000000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>10705000000.0</v>
       </c>
     </row>
@@ -3010,120 +3077,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>70.2994</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>54.9215</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>48.4794</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>42.6047</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>46.4409</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>46.0929</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>43.6927</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>46.4457</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>37.3796</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>40.9732</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>24.9668</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>21.6894</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>22.125</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>16.8663</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>28.03</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>25.839</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>27.6812</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>26.0552</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>25.5189</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>24.0794</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>22.8333</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>21.9532</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>19.8415</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>18.4418</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>17.7609</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>18.3559</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>17.7336</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>18.4573</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>17.9474</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>17.8574</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>19.495</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>18.075</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>18.255</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>17.39</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>16.0118</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>16.939</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>16.5006</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>14.88</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>14.6744</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>13.8682</v>
       </c>
     </row>
@@ -3253,38 +3323,38 @@
           <t/>
         </is>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="Z24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA24" s="0" t="n">
         <v>0.6955</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>-1.3301</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>-1.3611</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>-0.5994</v>
       </c>
-      <c r="AD24" s="0" t="n">
+      <c r="AE24" s="0" t="n">
         <v>-0.5794</v>
       </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AF24" s="0" t="n">
         <v>-1.065</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>-0.76</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>-1.5</v>
       </c>
-      <c r="AH24" s="0" t="n">
+      <c r="AI24" s="0" t="n">
         <v>-1.23</v>
       </c>
-      <c r="AI24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AJ24" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3306,6 +3376,11 @@
         </is>
       </c>
       <c r="AN24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO24" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3318,120 +3393,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>75.8231</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>59.1482</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>52.188</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>45.8379</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>49.9641</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>49.586</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>46.9894</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>50.0002</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>40.2643</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>44.2156</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>26.9704</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>23.4641</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>23.9593</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>18.2739</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>30.3796</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>28.0329</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>30.0472</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>28.3202</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>27.7566</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>26.1924</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>24.8356</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>23.8787</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>23.4811</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>21.7297</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>20.943</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>20.9132</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>18.9003</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>19.3063</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>19.1971</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>19.1274</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>18.7458</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>17.6138</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>17.0273</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>16.4067</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>16.2069</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>17.1101</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>16.7292</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>15.0831</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>14.8831</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>14.0613</v>
       </c>
     </row>
@@ -3561,38 +3639,38 @@
           <t/>
         </is>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="Z26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA26" s="0" t="n">
         <v>0.7634</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>-1.4153</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>-1.4321</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>-0.6514</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>-0.6414</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>-1.095</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>-0.78</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>-1.53</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="AI26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AJ26" s="0" t="inlineStr">
         <is>
           <t/>
@@ -3614,6 +3692,11 @@
         </is>
       </c>
       <c r="AN26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO26" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3626,120 +3709,123 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>75.8231</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>59.1482</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>52.188</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>45.8379</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>49.9641</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>49.586</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>46.9894</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>50.0002</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>40.2643</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>44.2156</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>26.9704</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>23.4641</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>23.9593</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>18.2739</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>30.3796</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>28.0329</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>30.0472</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>28.3202</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>27.7566</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>26.1924</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>24.8356</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>23.8787</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>22.0562</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>20.578</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>19.892</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>20.1498</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>20.3216</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>20.7432</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>19.8489</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>19.7689</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>19.835</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>18.39</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>18.56</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>17.66</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>16.2545</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>17.1819</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>16.7289</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>15.0849</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>14.885</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>14.0632</v>
       </c>
     </row>
@@ -3750,120 +3836,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>51363000000.0</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>40269000000.0</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>35713000000.0</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>31534000000.0</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>34522000000.0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>34343000000.0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>32620000000.0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>34744000000.0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>27992000000.0</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>30736000000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>18768000000.0</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>16308000000.0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>16637000000.0</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>12662000000.0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>21015000000.0</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>19344000000.0</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>20697000000.0</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>19478000000.0</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>19068000000.0</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>17986000000.0</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>17040000000.0</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>16348000000.0</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>15052000000.0</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>13997000000.0</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>13485000000.0</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>13620000000.0</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>13688000000.0</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>13927000000.0</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>13282000000.0</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>13160000000.0</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>13137000000.0</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>12132000000.0</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>12191000000.0</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>11553000000.0</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>10586000000.0</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>11157000000.0</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>10829000000.0</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>9737000000.0</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>9575000000.0</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>9013000000.0</v>
       </c>
     </row>
@@ -3993,38 +4082,38 @@
           <t/>
         </is>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="Z29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA29" s="0" t="n">
         <v>516000000.0</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>-957000000.0</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>-965000000.0</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>-443000000.0</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>-427000000.0</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>-707000000.0</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>-496000000.0</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>-998000000.0</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>-816000000.0</v>
       </c>
-      <c r="AI29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AJ29" s="0" t="inlineStr">
         <is>
           <t/>
@@ -4046,6 +4135,11 @@
         </is>
       </c>
       <c r="AN29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO29" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4058,120 +4152,123 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
+        <v>51363000000.0</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>40269000000.0</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>35713000000.0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>31534000000.0</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>34522000000.0</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>34343000000.0</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>32620000000.0</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>34744000000.0</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>27992000000.0</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>30736000000.0</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>18768000000.0</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>16308000000.0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>16637000000.0</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>12662000000.0</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>21015000000.0</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>19344000000.0</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>20697000000.0</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>19478000000.0</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>19068000000.0</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>17986000000.0</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>17040000000.0</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>16348000000.0</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>16019000000.0</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>14779000000.0</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>14199000000.0</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>14136000000.0</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>12731000000.0</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>12962000000.0</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>12839000000.0</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>12733000000.0</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>12430000000.0</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>11636000000.0</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>11193000000.0</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>10737000000.0</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>10556000000.0</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>11109000000.0</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>10829000000.0</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>9737000000.0</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>9575000000.0</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>9013000000.0</v>
       </c>
     </row>
@@ -4182,120 +4279,123 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
+        <v>0.3204</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>0.3002</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="D31" s="0" t="n">
         <v>0.2797</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>0.2736</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>0.2866</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>0.2839</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>0.2846</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>0.2901</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>0.2546</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>0.2672</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>0.2732</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>0.2748</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>0.2954</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>0.2985</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>0.303</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>0.2973</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>0.3294</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>0.3308</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="T31" s="0" t="n">
         <v>0.3311</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="U31" s="0" t="n">
         <v>0.3291</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="V31" s="0" t="n">
         <v>0.3271</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="W31" s="0" t="n">
         <v>0.3257</v>
       </c>
-      <c r="W31" s="0" t="n">
+      <c r="X31" s="0" t="n">
         <v>0.3247</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="Y31" s="0" t="n">
         <v>0.3249</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Z31" s="0" t="n">
         <v>0.3228</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="AA31" s="0" t="n">
         <v>0.3254</v>
       </c>
-      <c r="AA31" s="0" t="n">
+      <c r="AB31" s="0" t="n">
         <v>0.3345</v>
       </c>
-      <c r="AB31" s="0" t="n">
+      <c r="AC31" s="0" t="n">
         <v>0.3409</v>
       </c>
-      <c r="AC31" s="0" t="n">
+      <c r="AD31" s="0" t="n">
         <v>0.3431</v>
       </c>
-      <c r="AD31" s="0" t="n">
+      <c r="AE31" s="0" t="n">
         <v>0.3484</v>
       </c>
-      <c r="AE31" s="0" t="n">
+      <c r="AF31" s="0" t="n">
         <v>0.3852</v>
       </c>
-      <c r="AF31" s="0" t="n">
+      <c r="AG31" s="0" t="n">
         <v>0.3652</v>
       </c>
-      <c r="AG31" s="0" t="n">
+      <c r="AH31" s="0" t="n">
         <v>0.3629</v>
       </c>
-      <c r="AH31" s="0" t="n">
+      <c r="AI31" s="0" t="n">
         <v>0.3648</v>
       </c>
-      <c r="AI31" s="0" t="n">
+      <c r="AJ31" s="0" t="n">
         <v>0.332</v>
       </c>
-      <c r="AJ31" s="0" t="n">
+      <c r="AK31" s="0" t="n">
         <v>0.3594</v>
       </c>
-      <c r="AK31" s="0" t="n">
+      <c r="AL31" s="0" t="n">
         <v>0.3701</v>
       </c>
-      <c r="AL31" s="0" t="n">
+      <c r="AM31" s="0" t="n">
         <v>0.3586</v>
       </c>
-      <c r="AM31" s="0" t="n">
+      <c r="AN31" s="0" t="n">
         <v>0.362</v>
       </c>
-      <c r="AN31" s="0" t="n">
+      <c r="AO31" s="0" t="n">
         <v>0.3686</v>
       </c>
     </row>
@@ -4306,120 +4406,123 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>0.3571</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <v>0.3318</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>0.3339</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>0.3241</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="G32" s="0" t="n">
         <v>0.337</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>0.3423</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>0.3427</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>0.3403</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>0.3506</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>0.3485</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>0.3383</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>0.3342</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>0.3346</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>0.3464</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>0.3647</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>0.4002</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="S32" s="0" t="n">
         <v>0.3992</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="T32" s="0" t="n">
         <v>0.3885</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="U32" s="0" t="n">
         <v>0.3612</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="V32" s="0" t="n">
         <v>0.3527</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="W32" s="0" t="n">
         <v>0.3543</v>
       </c>
-      <c r="W32" s="0" t="n">
+      <c r="X32" s="0" t="n">
         <v>0.3759</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="Y32" s="0" t="n">
         <v>0.3853</v>
       </c>
-      <c r="Y32" s="0" t="n">
+      <c r="Z32" s="0" t="n">
         <v>0.3738</v>
       </c>
-      <c r="Z32" s="0" t="n">
+      <c r="AA32" s="0" t="n">
         <v>0.3488</v>
       </c>
-      <c r="AA32" s="0" t="n">
+      <c r="AB32" s="0" t="n">
         <v>0.3341</v>
       </c>
-      <c r="AB32" s="0" t="n">
+      <c r="AC32" s="0" t="n">
         <v>0.3343</v>
       </c>
-      <c r="AC32" s="0" t="n">
+      <c r="AD32" s="0" t="n">
         <v>0.3348</v>
       </c>
-      <c r="AD32" s="0" t="n">
+      <c r="AE32" s="0" t="n">
         <v>0.3361</v>
       </c>
-      <c r="AE32" s="0" t="n">
+      <c r="AF32" s="0" t="n">
         <v>0.3611</v>
       </c>
-      <c r="AF32" s="0" t="n">
+      <c r="AG32" s="0" t="n">
         <v>0.3427</v>
       </c>
-      <c r="AG32" s="0" t="n">
+      <c r="AH32" s="0" t="n">
         <v>0.3425</v>
       </c>
-      <c r="AH32" s="0" t="n">
+      <c r="AI32" s="0" t="n">
         <v>0.361</v>
       </c>
-      <c r="AI32" s="0" t="n">
+      <c r="AJ32" s="0" t="n">
         <v>0.3426</v>
       </c>
-      <c r="AJ32" s="0" t="n">
+      <c r="AK32" s="0" t="n">
         <v>0.37</v>
       </c>
-      <c r="AK32" s="0" t="n">
+      <c r="AL32" s="0" t="n">
         <v>0.3774</v>
       </c>
-      <c r="AL32" s="0" t="n">
+      <c r="AM32" s="0" t="n">
         <v>0.3843</v>
       </c>
-      <c r="AM32" s="0" t="n">
+      <c r="AN32" s="0" t="n">
         <v>0.3962</v>
       </c>
-      <c r="AN32" s="0" t="n">
+      <c r="AO32" s="0" t="n">
         <v>0.3932</v>
       </c>
     </row>

--- a/Income/GOOG_inc.xlsx
+++ b/Income/GOOG_inc.xlsx
@@ -2194,16 +2194,16 @@
         <v>0.5353</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.5353</v>
+        <v>0.5355</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.5407</v>
+        <v>0.541</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.5505</v>
+        <v>0.5507</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.5556</v>
+        <v>0.5558</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.5563</v>
@@ -2321,16 +2321,16 @@
         <v>0.2261</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.2032</v>
+        <v>0.2031</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.1979</v>
+        <v>0.1978</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.2138</v>
+        <v>0.2136</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.2116</v>
+        <v>0.2115</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.214</v>
@@ -2448,16 +2448,16 @@
         <v>0.2637</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.2339</v>
+        <v>0.2338</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.2134</v>
+        <v>0.2133</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.2356</v>
+        <v>0.2355</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.245</v>
+        <v>0.2448</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.2515</v>
@@ -2575,16 +2575,16 @@
         <v>0.2208</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.2083</v>
+        <v>0.2082</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.1903</v>
+        <v>0.1902</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.2073</v>
+        <v>0.2072</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.2123</v>
+        <v>0.2122</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.2104</v>
@@ -2702,7 +2702,7 @@
         <v>0.0433</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.3318</v>
+        <v>0.3316</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0.0824</v>
@@ -4285,16 +4285,16 @@
         <v>0.3002</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.2797</v>
+        <v>0.2801</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.2736</v>
+        <v>0.274</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.2866</v>
+        <v>0.287</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2839</v>
+        <v>0.2843</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.2846</v>
@@ -4412,16 +4412,16 @@
         <v>0.3571</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.3318</v>
+        <v>0.3316</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.3339</v>
+        <v>0.3337</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.3241</v>
+        <v>0.3239</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.337</v>
+        <v>0.3368</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0.3423</v>
